--- a/Guild Digital/Example CHT application/forms/app/unmute.xlsx
+++ b/Guild Digital/Example CHT application/forms/app/unmute.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
@@ -653,13 +653,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
@@ -2943,7 +2943,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -2953,7 +2953,7 @@
       <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.2890625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.28125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.28"/>
@@ -3061,14 +3061,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.87890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3129,9 +3129,8 @@
       <c r="B2" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="22" t="str">
-        <f aca="true">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2023-09-19  21-51</v>
+      <c r="C2" s="22" t="n">
+        <v>43842</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>95</v>
